--- a/verbosPendentes.xlsx
+++ b/verbosPendentes.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphaelcordon/Drive/Python/Verbi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD0E0065-1E11-E544-99D3-F4E8DCA6544C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2BE4AF-70D2-B14E-95A9-825BBB4E7D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="600" windowWidth="28040" windowHeight="17440" xr2:uid="{D9B7CCDC-4409-074A-A682-D96EB59278AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="498">
   <si>
     <t>fare</t>
   </si>
@@ -290,14 +290,1258 @@
   </si>
   <si>
     <t>gerundio passato</t>
+  </si>
+  <si>
+    <t>svenire</t>
+  </si>
+  <si>
+    <t>toccare</t>
+  </si>
+  <si>
+    <t>essere</t>
+  </si>
+  <si>
+    <t>andare</t>
+  </si>
+  <si>
+    <t>svegliare</t>
+  </si>
+  <si>
+    <t>accogliere</t>
+  </si>
+  <si>
+    <t>ammettere</t>
+  </si>
+  <si>
+    <t>prevalere</t>
+  </si>
+  <si>
+    <t>apparecchiare</t>
+  </si>
+  <si>
+    <t>colpire</t>
+  </si>
+  <si>
+    <t>commuovere</t>
+  </si>
+  <si>
+    <t>digerire</t>
+  </si>
+  <si>
+    <t>dirigere</t>
+  </si>
+  <si>
+    <t>implicare</t>
+  </si>
+  <si>
+    <t>invadere</t>
+  </si>
+  <si>
+    <t>tradurre</t>
+  </si>
+  <si>
+    <t>calmare</t>
+  </si>
+  <si>
+    <t>gridare</t>
+  </si>
+  <si>
+    <t>impiegare</t>
+  </si>
+  <si>
+    <t>istruire</t>
+  </si>
+  <si>
+    <t>meritare</t>
+  </si>
+  <si>
+    <t>misurare</t>
+  </si>
+  <si>
+    <t>muovere</t>
+  </si>
+  <si>
+    <t>raggiungere</t>
+  </si>
+  <si>
+    <t>riuscire</t>
+  </si>
+  <si>
+    <t>sospendere</t>
+  </si>
+  <si>
+    <t>spedire</t>
+  </si>
+  <si>
+    <t>tentare</t>
+  </si>
+  <si>
+    <t>avvolgere</t>
+  </si>
+  <si>
+    <t>concedere</t>
+  </si>
+  <si>
+    <t>fingere</t>
+  </si>
+  <si>
+    <t>infliggere</t>
+  </si>
+  <si>
+    <t>lagnare</t>
+  </si>
+  <si>
+    <t>mantenere</t>
+  </si>
+  <si>
+    <t>medicare</t>
+  </si>
+  <si>
+    <t>nutrire</t>
+  </si>
+  <si>
+    <t>ottenere</t>
+  </si>
+  <si>
+    <t>persuadere</t>
+  </si>
+  <si>
+    <t>urlare</t>
+  </si>
+  <si>
+    <t>promettere</t>
+  </si>
+  <si>
+    <t>reggere</t>
+  </si>
+  <si>
+    <t>restituire</t>
+  </si>
+  <si>
+    <t>sposare</t>
+  </si>
+  <si>
+    <t>abbandonare</t>
+  </si>
+  <si>
+    <t>abituare</t>
+  </si>
+  <si>
+    <t>afferrare</t>
+  </si>
+  <si>
+    <t>udire</t>
+  </si>
+  <si>
+    <t>assumere</t>
+  </si>
+  <si>
+    <t>friggere</t>
+  </si>
+  <si>
+    <t>gestire</t>
+  </si>
+  <si>
+    <t>guadagnare</t>
+  </si>
+  <si>
+    <t>ridurre</t>
+  </si>
+  <si>
+    <t>ritenere</t>
+  </si>
+  <si>
+    <t>salvare</t>
+  </si>
+  <si>
+    <t>serrare</t>
+  </si>
+  <si>
+    <t>aggiungere</t>
+  </si>
+  <si>
+    <t>alludere</t>
+  </si>
+  <si>
+    <t>comportare</t>
+  </si>
+  <si>
+    <t>coprire</t>
+  </si>
+  <si>
+    <t>descrivere</t>
+  </si>
+  <si>
+    <t>dipendere</t>
+  </si>
+  <si>
+    <t>garantire</t>
+  </si>
+  <si>
+    <t>temere</t>
+  </si>
+  <si>
+    <t>illudere</t>
+  </si>
+  <si>
+    <t>intendere</t>
+  </si>
+  <si>
+    <t>liquidare</t>
+  </si>
+  <si>
+    <t>pretendere</t>
+  </si>
+  <si>
+    <t>sottrarre</t>
+  </si>
+  <si>
+    <t>variare</t>
+  </si>
+  <si>
+    <t>annoiare</t>
+  </si>
+  <si>
+    <t>correggere</t>
+  </si>
+  <si>
+    <t>eleggere</t>
+  </si>
+  <si>
+    <t>fallire</t>
+  </si>
+  <si>
+    <t>fermare</t>
+  </si>
+  <si>
+    <t>firmare</t>
+  </si>
+  <si>
+    <t>includere</t>
+  </si>
+  <si>
+    <t>obbligare</t>
+  </si>
+  <si>
+    <t>omettere</t>
+  </si>
+  <si>
+    <t>pesare</t>
+  </si>
+  <si>
+    <t>produrre</t>
+  </si>
+  <si>
+    <t>rassegnare</t>
+  </si>
+  <si>
+    <t>spargere</t>
+  </si>
+  <si>
+    <t>votare</t>
+  </si>
+  <si>
+    <t>assistere</t>
+  </si>
+  <si>
+    <t>causare</t>
+  </si>
+  <si>
+    <t>celebrare</t>
+  </si>
+  <si>
+    <t>comporre</t>
+  </si>
+  <si>
+    <t>contenere</t>
+  </si>
+  <si>
+    <t>divertire</t>
+  </si>
+  <si>
+    <t>esprimere</t>
+  </si>
+  <si>
+    <t>inquinare</t>
+  </si>
+  <si>
+    <t>lottare</t>
+  </si>
+  <si>
+    <t>negoziare</t>
+  </si>
+  <si>
+    <t>spendere</t>
+  </si>
+  <si>
+    <t>suonare</t>
+  </si>
+  <si>
+    <t>alzare</t>
+  </si>
+  <si>
+    <t>depositare</t>
+  </si>
+  <si>
+    <t>difendere</t>
+  </si>
+  <si>
+    <t>impersonare</t>
+  </si>
+  <si>
+    <t>incontrare</t>
+  </si>
+  <si>
+    <t>interrompere</t>
+  </si>
+  <si>
+    <t>legare</t>
+  </si>
+  <si>
+    <t>limitare</t>
+  </si>
+  <si>
+    <t>occupare</t>
+  </si>
+  <si>
+    <t>rispettare</t>
+  </si>
+  <si>
+    <t>turbare</t>
+  </si>
+  <si>
+    <t>valere</t>
+  </si>
+  <si>
+    <t>ardere</t>
+  </si>
+  <si>
+    <t>bloccare</t>
+  </si>
+  <si>
+    <t>condurre</t>
+  </si>
+  <si>
+    <t>distrarre</t>
+  </si>
+  <si>
+    <t>incomodare</t>
+  </si>
+  <si>
+    <t>lanciare</t>
+  </si>
+  <si>
+    <t>mostrare</t>
+  </si>
+  <si>
+    <t>navigare</t>
+  </si>
+  <si>
+    <t>negare</t>
+  </si>
+  <si>
+    <t>operare</t>
+  </si>
+  <si>
+    <t>predire</t>
+  </si>
+  <si>
+    <t>stendere</t>
+  </si>
+  <si>
+    <t>suggerire</t>
+  </si>
+  <si>
+    <t>dettare</t>
+  </si>
+  <si>
+    <t>funzionare</t>
+  </si>
+  <si>
+    <t>girare</t>
+  </si>
+  <si>
+    <t>giurare</t>
+  </si>
+  <si>
+    <t>gustare</t>
+  </si>
+  <si>
+    <t>lodare</t>
+  </si>
+  <si>
+    <t>mangiare</t>
+  </si>
+  <si>
+    <t>modificare</t>
+  </si>
+  <si>
+    <t>piangere</t>
+  </si>
+  <si>
+    <t>rendere</t>
+  </si>
+  <si>
+    <t>resistere</t>
+  </si>
+  <si>
+    <t>stringere</t>
+  </si>
+  <si>
+    <t>togliere</t>
+  </si>
+  <si>
+    <t>trasferire</t>
+  </si>
+  <si>
+    <t>attribuire</t>
+  </si>
+  <si>
+    <t>buttare</t>
+  </si>
+  <si>
+    <t>convincere</t>
+  </si>
+  <si>
+    <t>distruggere</t>
+  </si>
+  <si>
+    <t>festeggiare</t>
+  </si>
+  <si>
+    <t>indicare</t>
+  </si>
+  <si>
+    <t>parere</t>
+  </si>
+  <si>
+    <t>penetrare</t>
+  </si>
+  <si>
+    <t>promuovere</t>
+  </si>
+  <si>
+    <t>ridire</t>
+  </si>
+  <si>
+    <t>supporre</t>
+  </si>
+  <si>
+    <t>abbassare</t>
+  </si>
+  <si>
+    <t>burlare</t>
+  </si>
+  <si>
+    <t>corrispondere</t>
+  </si>
+  <si>
+    <t>fidare</t>
+  </si>
+  <si>
+    <t>fuggire</t>
+  </si>
+  <si>
+    <t>imprimere</t>
+  </si>
+  <si>
+    <t>informare</t>
+  </si>
+  <si>
+    <t>insistere</t>
+  </si>
+  <si>
+    <t>notificare</t>
+  </si>
+  <si>
+    <t>odiare</t>
+  </si>
+  <si>
+    <t>mandare</t>
+  </si>
+  <si>
+    <t>partecipare</t>
+  </si>
+  <si>
+    <t>permettere</t>
+  </si>
+  <si>
+    <t>stabilire</t>
+  </si>
+  <si>
+    <t>cedere</t>
+  </si>
+  <si>
+    <t>costruire</t>
+  </si>
+  <si>
+    <t>esaminare</t>
+  </si>
+  <si>
+    <t>recitare</t>
+  </si>
+  <si>
+    <t>scoprire</t>
+  </si>
+  <si>
+    <t>seguire</t>
+  </si>
+  <si>
+    <t>singhiozzare</t>
+  </si>
+  <si>
+    <t>sorridere</t>
+  </si>
+  <si>
+    <t>spiegare</t>
+  </si>
+  <si>
+    <t>spingere</t>
+  </si>
+  <si>
+    <t>torcere</t>
+  </si>
+  <si>
+    <t>angolare</t>
+  </si>
+  <si>
+    <t>consumare</t>
+  </si>
+  <si>
+    <t>contraddire</t>
+  </si>
+  <si>
+    <t>definire</t>
+  </si>
+  <si>
+    <t>elevare</t>
+  </si>
+  <si>
+    <t>generare</t>
+  </si>
+  <si>
+    <t>lusingare</t>
+  </si>
+  <si>
+    <t>prestare</t>
+  </si>
+  <si>
+    <t>prevenire</t>
+  </si>
+  <si>
+    <t>soffrire</t>
+  </si>
+  <si>
+    <t>trascinare</t>
+  </si>
+  <si>
+    <t>ubbidire</t>
+  </si>
+  <si>
+    <t>zappare</t>
+  </si>
+  <si>
+    <t>zoppicare</t>
+  </si>
+  <si>
+    <t>aderire</t>
+  </si>
+  <si>
+    <t>esibire</t>
+  </si>
+  <si>
+    <t>estendere</t>
+  </si>
+  <si>
+    <t>mutare</t>
+  </si>
+  <si>
+    <t>onorare</t>
+  </si>
+  <si>
+    <t>oscurare</t>
+  </si>
+  <si>
+    <t>percuotere</t>
+  </si>
+  <si>
+    <t>sbarcare</t>
+  </si>
+  <si>
+    <t>sottomettere</t>
+  </si>
+  <si>
+    <t>tacere</t>
+  </si>
+  <si>
+    <t>umiliare</t>
+  </si>
+  <si>
+    <t>verificare</t>
+  </si>
+  <si>
+    <t>volgere</t>
+  </si>
+  <si>
+    <t>cancellare</t>
+  </si>
+  <si>
+    <t>comunicare</t>
+  </si>
+  <si>
+    <t>cucire</t>
+  </si>
+  <si>
+    <t>distinguere</t>
+  </si>
+  <si>
+    <t>finire</t>
+  </si>
+  <si>
+    <t>fumare</t>
+  </si>
+  <si>
+    <t>intagliare</t>
+  </si>
+  <si>
+    <t>passare</t>
+  </si>
+  <si>
+    <t>premere</t>
+  </si>
+  <si>
+    <t>quietare</t>
+  </si>
+  <si>
+    <t>regolare</t>
+  </si>
+  <si>
+    <t>riflettere</t>
+  </si>
+  <si>
+    <t>soddisfare</t>
+  </si>
+  <si>
+    <t>abbracciare</t>
+  </si>
+  <si>
+    <t>abusare</t>
+  </si>
+  <si>
+    <t>asciugare</t>
+  </si>
+  <si>
+    <t>disarmare</t>
+  </si>
+  <si>
+    <t>governare</t>
+  </si>
+  <si>
+    <t>liberare</t>
+  </si>
+  <si>
+    <t>macchiare</t>
+  </si>
+  <si>
+    <t>offrire</t>
+  </si>
+  <si>
+    <t>ragionare</t>
+  </si>
+  <si>
+    <t>redigere</t>
+  </si>
+  <si>
+    <t>sorgere</t>
+  </si>
+  <si>
+    <t>sorprendere</t>
+  </si>
+  <si>
+    <t>tremare</t>
+  </si>
+  <si>
+    <t>accompagnare</t>
+  </si>
+  <si>
+    <t>cogliere</t>
+  </si>
+  <si>
+    <t>deliberare</t>
+  </si>
+  <si>
+    <t>gettare</t>
+  </si>
+  <si>
+    <t>glorificare</t>
+  </si>
+  <si>
+    <t>impaurire</t>
+  </si>
+  <si>
+    <t>impazzire</t>
+  </si>
+  <si>
+    <t>opporre</t>
+  </si>
+  <si>
+    <t>porgere</t>
+  </si>
+  <si>
+    <t>riscaldare</t>
+  </si>
+  <si>
+    <t>separare</t>
+  </si>
+  <si>
+    <t>trarre</t>
+  </si>
+  <si>
+    <t>arrabbiare</t>
+  </si>
+  <si>
+    <t>bruciare</t>
+  </si>
+  <si>
+    <t>diventare</t>
+  </si>
+  <si>
+    <t>immergere</t>
+  </si>
+  <si>
+    <t>mascherare</t>
+  </si>
+  <si>
+    <t>notare</t>
+  </si>
+  <si>
+    <t>porre</t>
+  </si>
+  <si>
+    <t>provvedere</t>
+  </si>
+  <si>
+    <t>riassumere</t>
+  </si>
+  <si>
+    <t>tirare</t>
+  </si>
+  <si>
+    <t>rinnovare</t>
+  </si>
+  <si>
+    <t>scambiare</t>
+  </si>
+  <si>
+    <t>sedere</t>
+  </si>
+  <si>
+    <t>spandere</t>
+  </si>
+  <si>
+    <t>ammirare</t>
+  </si>
+  <si>
+    <t>arrestare</t>
+  </si>
+  <si>
+    <t>attendere</t>
+  </si>
+  <si>
+    <t>avvisare</t>
+  </si>
+  <si>
+    <t>comprendere</t>
+  </si>
+  <si>
+    <t>consistere</t>
+  </si>
+  <si>
+    <t>desiderare</t>
+  </si>
+  <si>
+    <t>eliminare</t>
+  </si>
+  <si>
+    <t>introdurre</t>
+  </si>
+  <si>
+    <t>ostinare</t>
+  </si>
+  <si>
+    <t>presentare</t>
+  </si>
+  <si>
+    <t>ricevere</t>
+  </si>
+  <si>
+    <t>rodere</t>
+  </si>
+  <si>
+    <t>scuotere</t>
+  </si>
+  <si>
+    <t>tendere</t>
+  </si>
+  <si>
+    <t>appartenere</t>
+  </si>
+  <si>
+    <t>cascare</t>
+  </si>
+  <si>
+    <t>commettere</t>
+  </si>
+  <si>
+    <t>decidere</t>
+  </si>
+  <si>
+    <t>diffondere</t>
+  </si>
+  <si>
+    <t>dissolvere</t>
+  </si>
+  <si>
+    <t>fissare</t>
+  </si>
+  <si>
+    <t>irrorare</t>
+  </si>
+  <si>
+    <t>proibire</t>
+  </si>
+  <si>
+    <t>pungere</t>
+  </si>
+  <si>
+    <t>rifiutare</t>
+  </si>
+  <si>
+    <t>scegliere</t>
+  </si>
+  <si>
+    <t>vagabondare</t>
+  </si>
+  <si>
+    <t>accorgere</t>
+  </si>
+  <si>
+    <t>anticipare</t>
+  </si>
+  <si>
+    <t>arrostire</t>
+  </si>
+  <si>
+    <t>determinare</t>
+  </si>
+  <si>
+    <t>disgustare</t>
+  </si>
+  <si>
+    <t>emettere</t>
+  </si>
+  <si>
+    <t>facilitare</t>
+  </si>
+  <si>
+    <t>godere</t>
+  </si>
+  <si>
+    <t>moderare</t>
+  </si>
+  <si>
+    <t>opprimere</t>
+  </si>
+  <si>
+    <t>ringraziare</t>
+  </si>
+  <si>
+    <t>svanire</t>
+  </si>
+  <si>
+    <t>trascorrere</t>
+  </si>
+  <si>
+    <t>convertire</t>
+  </si>
+  <si>
+    <t>dimostrare</t>
+  </si>
+  <si>
+    <t>dolere</t>
+  </si>
+  <si>
+    <t>escludere</t>
+  </si>
+  <si>
+    <t>giudicare</t>
+  </si>
+  <si>
+    <t>nominare</t>
+  </si>
+  <si>
+    <t>proporre</t>
+  </si>
+  <si>
+    <t>unire</t>
+  </si>
+  <si>
+    <t>raccontare</t>
+  </si>
+  <si>
+    <t>rappresentare</t>
+  </si>
+  <si>
+    <t>ungere</t>
+  </si>
+  <si>
+    <t>vantare</t>
+  </si>
+  <si>
+    <t>contendere</t>
+  </si>
+  <si>
+    <t>discutere</t>
+  </si>
+  <si>
+    <t>disfare</t>
+  </si>
+  <si>
+    <t>esasperare</t>
+  </si>
+  <si>
+    <t>esaurire</t>
+  </si>
+  <si>
+    <t>fondere</t>
+  </si>
+  <si>
+    <t>noleggiare</t>
+  </si>
+  <si>
+    <t>osare</t>
+  </si>
+  <si>
+    <t>risolvere</t>
+  </si>
+  <si>
+    <t>servire</t>
+  </si>
+  <si>
+    <t>trasmettere</t>
+  </si>
+  <si>
+    <t>affliggere</t>
+  </si>
+  <si>
+    <t>calcolare</t>
+  </si>
+  <si>
+    <t>corrompere</t>
+  </si>
+  <si>
+    <t>discorrere</t>
+  </si>
+  <si>
+    <t>emergere</t>
+  </si>
+  <si>
+    <t>imporre</t>
+  </si>
+  <si>
+    <t>inferire</t>
+  </si>
+  <si>
+    <t>bollire</t>
+  </si>
+  <si>
+    <t>maledire</t>
+  </si>
+  <si>
+    <t>possedere</t>
+  </si>
+  <si>
+    <t>punire</t>
+  </si>
+  <si>
+    <t>riconoscere</t>
+  </si>
+  <si>
+    <t>rifare</t>
+  </si>
+  <si>
+    <t>svolgere</t>
+  </si>
+  <si>
+    <t>tingere</t>
+  </si>
+  <si>
+    <t>avvedere</t>
+  </si>
+  <si>
+    <t>affermare</t>
+  </si>
+  <si>
+    <t>bussare</t>
+  </si>
+  <si>
+    <t>confondere</t>
+  </si>
+  <si>
+    <t>esagerare</t>
+  </si>
+  <si>
+    <t>esistere</t>
+  </si>
+  <si>
+    <t>falsificare</t>
+  </si>
+  <si>
+    <t>giungere</t>
+  </si>
+  <si>
+    <t>stare</t>
+  </si>
+  <si>
+    <t>maltrattare</t>
+  </si>
+  <si>
+    <t>piacere</t>
+  </si>
+  <si>
+    <t>proteggere</t>
+  </si>
+  <si>
+    <t>riunire</t>
+  </si>
+  <si>
+    <t>adorare</t>
+  </si>
+  <si>
+    <t>aizzare</t>
+  </si>
+  <si>
+    <t>apparire</t>
+  </si>
+  <si>
+    <t>apprendere</t>
+  </si>
+  <si>
+    <t>concludere</t>
+  </si>
+  <si>
+    <t>costringere</t>
+  </si>
+  <si>
+    <t>detestare</t>
+  </si>
+  <si>
+    <t>ferire</t>
+  </si>
+  <si>
+    <t>imbucare</t>
+  </si>
+  <si>
+    <t>osservare</t>
+  </si>
+  <si>
+    <t>prevedere</t>
+  </si>
+  <si>
+    <t>spegnere</t>
+  </si>
+  <si>
+    <t>assaggiare</t>
+  </si>
+  <si>
+    <t>assalire</t>
+  </si>
+  <si>
+    <t>benedire</t>
+  </si>
+  <si>
+    <t>discendere</t>
+  </si>
+  <si>
+    <t>dormire</t>
+  </si>
+  <si>
+    <t>offendere</t>
+  </si>
+  <si>
+    <t>patire</t>
+  </si>
+  <si>
+    <t>piegare</t>
+  </si>
+  <si>
+    <t>pronunciare</t>
+  </si>
+  <si>
+    <t>raccomandare</t>
+  </si>
+  <si>
+    <t>snodare</t>
+  </si>
+  <si>
+    <t>sostenere</t>
+  </si>
+  <si>
+    <t>tenere</t>
+  </si>
+  <si>
+    <t>tradire</t>
+  </si>
+  <si>
+    <t>versare</t>
+  </si>
+  <si>
+    <t>disperare</t>
+  </si>
+  <si>
+    <t>guarire</t>
+  </si>
+  <si>
+    <t>passeggiare</t>
+  </si>
+  <si>
+    <t>preparare</t>
+  </si>
+  <si>
+    <t>sconfiggere</t>
+  </si>
+  <si>
+    <t>dovere</t>
+  </si>
+  <si>
+    <t>vincere</t>
+  </si>
+  <si>
+    <t>guidare</t>
+  </si>
+  <si>
+    <t>lavare</t>
+  </si>
+  <si>
+    <t>pettinare</t>
+  </si>
+  <si>
+    <t>radere</t>
+  </si>
+  <si>
+    <t>sbagliare</t>
+  </si>
+  <si>
+    <t>studiare</t>
+  </si>
+  <si>
+    <t>tagliare</t>
+  </si>
+  <si>
+    <t>uccidere</t>
+  </si>
+  <si>
+    <t>addormentare</t>
+  </si>
+  <si>
+    <t>bocciare</t>
+  </si>
+  <si>
+    <t>entrare</t>
+  </si>
+  <si>
+    <t>invitare</t>
+  </si>
+  <si>
+    <t>mentire</t>
+  </si>
+  <si>
+    <t>mordere</t>
+  </si>
+  <si>
+    <t>pulire</t>
+  </si>
+  <si>
+    <t>scomparire</t>
+  </si>
+  <si>
+    <t>dipingere</t>
+  </si>
+  <si>
+    <t>dividere</t>
+  </si>
+  <si>
+    <t>evitare</t>
+  </si>
+  <si>
+    <t>guardare</t>
+  </si>
+  <si>
+    <t>nascondere</t>
+  </si>
+  <si>
+    <t>ordinare</t>
+  </si>
+  <si>
+    <t>rompere</t>
+  </si>
+  <si>
+    <t>saltare</t>
+  </si>
+  <si>
+    <t>sognare</t>
+  </si>
+  <si>
+    <t>cadere</t>
+  </si>
+  <si>
+    <t>crescere</t>
+  </si>
+  <si>
+    <t>formare</t>
+  </si>
+  <si>
+    <t>giacere</t>
+  </si>
+  <si>
+    <t>giustificare</t>
+  </si>
+  <si>
+    <t>migliorare</t>
+  </si>
+  <si>
+    <t>rispondere</t>
+  </si>
+  <si>
+    <t>domandare</t>
+  </si>
+  <si>
+    <t>scherzare</t>
+  </si>
+  <si>
+    <t>vestire</t>
+  </si>
+  <si>
+    <t>innamorare</t>
+  </si>
+  <si>
+    <t>respirare</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -340,9 +1584,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,10 +1902,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E678B4A-3D9A-E142-B932-87E077064B91}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E495"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,19 +1918,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1417,6 +2663,3723 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+      <c r="E296" s="1"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+      <c r="E298" s="1"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B304" s="1"/>
+      <c r="C304" s="1"/>
+      <c r="D304" s="1"/>
+      <c r="E304" s="1"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
+      <c r="D305" s="1"/>
+      <c r="E305" s="1"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="1"/>
+      <c r="E306" s="1"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
+      <c r="D307" s="1"/>
+      <c r="E307" s="1"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B308" s="1"/>
+      <c r="C308" s="1"/>
+      <c r="D308" s="1"/>
+      <c r="E308" s="1"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
+      <c r="D310" s="1"/>
+      <c r="E310" s="1"/>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B311" s="1"/>
+      <c r="C311" s="1"/>
+      <c r="D311" s="1"/>
+      <c r="E311" s="1"/>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B312" s="1"/>
+      <c r="C312" s="1"/>
+      <c r="D312" s="1"/>
+      <c r="E312" s="1"/>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B313" s="1"/>
+      <c r="C313" s="1"/>
+      <c r="D313" s="1"/>
+      <c r="E313" s="1"/>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B314" s="1"/>
+      <c r="C314" s="1"/>
+      <c r="D314" s="1"/>
+      <c r="E314" s="1"/>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B315" s="1"/>
+      <c r="C315" s="1"/>
+      <c r="D315" s="1"/>
+      <c r="E315" s="1"/>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B316" s="1"/>
+      <c r="C316" s="1"/>
+      <c r="D316" s="1"/>
+      <c r="E316" s="1"/>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B317" s="1"/>
+      <c r="C317" s="1"/>
+      <c r="D317" s="1"/>
+      <c r="E317" s="1"/>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B318" s="1"/>
+      <c r="C318" s="1"/>
+      <c r="D318" s="1"/>
+      <c r="E318" s="1"/>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B319" s="1"/>
+      <c r="C319" s="1"/>
+      <c r="D319" s="1"/>
+      <c r="E319" s="1"/>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B320" s="1"/>
+      <c r="C320" s="1"/>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1"/>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B321" s="1"/>
+      <c r="C321" s="1"/>
+      <c r="D321" s="1"/>
+      <c r="E321" s="1"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B322" s="1"/>
+      <c r="C322" s="1"/>
+      <c r="D322" s="1"/>
+      <c r="E322" s="1"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B323" s="1"/>
+      <c r="C323" s="1"/>
+      <c r="D323" s="1"/>
+      <c r="E323" s="1"/>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B324" s="1"/>
+      <c r="C324" s="1"/>
+      <c r="D324" s="1"/>
+      <c r="E324" s="1"/>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B325" s="1"/>
+      <c r="C325" s="1"/>
+      <c r="D325" s="1"/>
+      <c r="E325" s="1"/>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B326" s="1"/>
+      <c r="C326" s="1"/>
+      <c r="D326" s="1"/>
+      <c r="E326" s="1"/>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B327" s="1"/>
+      <c r="C327" s="1"/>
+      <c r="D327" s="1"/>
+      <c r="E327" s="1"/>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B328" s="1"/>
+      <c r="C328" s="1"/>
+      <c r="D328" s="1"/>
+      <c r="E328" s="1"/>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1"/>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1"/>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A331" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="1"/>
+      <c r="E331" s="1"/>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
+      <c r="D332" s="1"/>
+      <c r="E332" s="1"/>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B333" s="1"/>
+      <c r="C333" s="1"/>
+      <c r="D333" s="1"/>
+      <c r="E333" s="1"/>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A334" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
+      <c r="D334" s="1"/>
+      <c r="E334" s="1"/>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A335" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1"/>
+      <c r="E335" s="1"/>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1"/>
+      <c r="E336" s="1"/>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B337" s="1"/>
+      <c r="C337" s="1"/>
+      <c r="D337" s="1"/>
+      <c r="E337" s="1"/>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
+      <c r="D338" s="1"/>
+      <c r="E338" s="1"/>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B339" s="1"/>
+      <c r="C339" s="1"/>
+      <c r="D339" s="1"/>
+      <c r="E339" s="1"/>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
+      <c r="D340" s="1"/>
+      <c r="E340" s="1"/>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B341" s="1"/>
+      <c r="C341" s="1"/>
+      <c r="D341" s="1"/>
+      <c r="E341" s="1"/>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+      <c r="D342" s="1"/>
+      <c r="E342" s="1"/>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1"/>
+      <c r="E343" s="1"/>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+      <c r="D344" s="1"/>
+      <c r="E344" s="1"/>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
+      <c r="D345" s="1"/>
+      <c r="E345" s="1"/>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B346" s="1"/>
+      <c r="C346" s="1"/>
+      <c r="D346" s="1"/>
+      <c r="E346" s="1"/>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A347" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B347" s="1"/>
+      <c r="C347" s="1"/>
+      <c r="D347" s="1"/>
+      <c r="E347" s="1"/>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B348" s="1"/>
+      <c r="C348" s="1"/>
+      <c r="D348" s="1"/>
+      <c r="E348" s="1"/>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B349" s="1"/>
+      <c r="C349" s="1"/>
+      <c r="D349" s="1"/>
+      <c r="E349" s="1"/>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B350" s="1"/>
+      <c r="C350" s="1"/>
+      <c r="D350" s="1"/>
+      <c r="E350" s="1"/>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B351" s="1"/>
+      <c r="C351" s="1"/>
+      <c r="D351" s="1"/>
+      <c r="E351" s="1"/>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
+      <c r="D352" s="1"/>
+      <c r="E352" s="1"/>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B353" s="1"/>
+      <c r="C353" s="1"/>
+      <c r="D353" s="1"/>
+      <c r="E353" s="1"/>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
+      <c r="D354" s="1"/>
+      <c r="E354" s="1"/>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A355" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B355" s="1"/>
+      <c r="C355" s="1"/>
+      <c r="D355" s="1"/>
+      <c r="E355" s="1"/>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A356" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B356" s="1"/>
+      <c r="C356" s="1"/>
+      <c r="D356" s="1"/>
+      <c r="E356" s="1"/>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A358" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B358" s="1"/>
+      <c r="C358" s="1"/>
+      <c r="D358" s="1"/>
+      <c r="E358" s="1"/>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A359" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B359" s="1"/>
+      <c r="C359" s="1"/>
+      <c r="D359" s="1"/>
+      <c r="E359" s="1"/>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A360" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B360" s="1"/>
+      <c r="C360" s="1"/>
+      <c r="D360" s="1"/>
+      <c r="E360" s="1"/>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B361" s="1"/>
+      <c r="C361" s="1"/>
+      <c r="D361" s="1"/>
+      <c r="E361" s="1"/>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A362" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
+      <c r="D362" s="1"/>
+      <c r="E362" s="1"/>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A363" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B363" s="1"/>
+      <c r="C363" s="1"/>
+      <c r="D363" s="1"/>
+      <c r="E363" s="1"/>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A364" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B364" s="1"/>
+      <c r="C364" s="1"/>
+      <c r="D364" s="1"/>
+      <c r="E364" s="1"/>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A365" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B365" s="1"/>
+      <c r="C365" s="1"/>
+      <c r="D365" s="1"/>
+      <c r="E365" s="1"/>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A366" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B366" s="1"/>
+      <c r="C366" s="1"/>
+      <c r="D366" s="1"/>
+      <c r="E366" s="1"/>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A367" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B367" s="1"/>
+      <c r="C367" s="1"/>
+      <c r="D367" s="1"/>
+      <c r="E367" s="1"/>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A368" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B368" s="1"/>
+      <c r="C368" s="1"/>
+      <c r="D368" s="1"/>
+      <c r="E368" s="1"/>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A369" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B369" s="1"/>
+      <c r="C369" s="1"/>
+      <c r="D369" s="1"/>
+      <c r="E369" s="1"/>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A370" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B370" s="1"/>
+      <c r="C370" s="1"/>
+      <c r="D370" s="1"/>
+      <c r="E370" s="1"/>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A371" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B371" s="1"/>
+      <c r="C371" s="1"/>
+      <c r="D371" s="1"/>
+      <c r="E371" s="1"/>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A372" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B372" s="1"/>
+      <c r="C372" s="1"/>
+      <c r="D372" s="1"/>
+      <c r="E372" s="1"/>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A373" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B373" s="1"/>
+      <c r="C373" s="1"/>
+      <c r="D373" s="1"/>
+      <c r="E373" s="1"/>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A374" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B374" s="1"/>
+      <c r="C374" s="1"/>
+      <c r="D374" s="1"/>
+      <c r="E374" s="1"/>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A375" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B375" s="1"/>
+      <c r="C375" s="1"/>
+      <c r="D375" s="1"/>
+      <c r="E375" s="1"/>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A376" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B376" s="1"/>
+      <c r="C376" s="1"/>
+      <c r="D376" s="1"/>
+      <c r="E376" s="1"/>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A377" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B377" s="1"/>
+      <c r="C377" s="1"/>
+      <c r="D377" s="1"/>
+      <c r="E377" s="1"/>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A378" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B378" s="1"/>
+      <c r="C378" s="1"/>
+      <c r="D378" s="1"/>
+      <c r="E378" s="1"/>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A379" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B379" s="1"/>
+      <c r="C379" s="1"/>
+      <c r="D379" s="1"/>
+      <c r="E379" s="1"/>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A380" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B380" s="1"/>
+      <c r="C380" s="1"/>
+      <c r="D380" s="1"/>
+      <c r="E380" s="1"/>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A381" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B381" s="1"/>
+      <c r="C381" s="1"/>
+      <c r="D381" s="1"/>
+      <c r="E381" s="1"/>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A382" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B382" s="1"/>
+      <c r="C382" s="1"/>
+      <c r="D382" s="1"/>
+      <c r="E382" s="1"/>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A383" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B383" s="1"/>
+      <c r="C383" s="1"/>
+      <c r="D383" s="1"/>
+      <c r="E383" s="1"/>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A384" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B384" s="1"/>
+      <c r="C384" s="1"/>
+      <c r="D384" s="1"/>
+      <c r="E384" s="1"/>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A385" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B385" s="1"/>
+      <c r="C385" s="1"/>
+      <c r="D385" s="1"/>
+      <c r="E385" s="1"/>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A386" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B386" s="1"/>
+      <c r="C386" s="1"/>
+      <c r="D386" s="1"/>
+      <c r="E386" s="1"/>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A387" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B387" s="1"/>
+      <c r="C387" s="1"/>
+      <c r="D387" s="1"/>
+      <c r="E387" s="1"/>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A388" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B388" s="1"/>
+      <c r="C388" s="1"/>
+      <c r="D388" s="1"/>
+      <c r="E388" s="1"/>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A389" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B389" s="1"/>
+      <c r="C389" s="1"/>
+      <c r="D389" s="1"/>
+      <c r="E389" s="1"/>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A390" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B390" s="1"/>
+      <c r="C390" s="1"/>
+      <c r="D390" s="1"/>
+      <c r="E390" s="1"/>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A391" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B391" s="1"/>
+      <c r="C391" s="1"/>
+      <c r="D391" s="1"/>
+      <c r="E391" s="1"/>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A392" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B392" s="1"/>
+      <c r="C392" s="1"/>
+      <c r="D392" s="1"/>
+      <c r="E392" s="1"/>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A393" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B393" s="1"/>
+      <c r="C393" s="1"/>
+      <c r="D393" s="1"/>
+      <c r="E393" s="1"/>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A394" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B394" s="1"/>
+      <c r="C394" s="1"/>
+      <c r="D394" s="1"/>
+      <c r="E394" s="1"/>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A395" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B395" s="1"/>
+      <c r="C395" s="1"/>
+      <c r="D395" s="1"/>
+      <c r="E395" s="1"/>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A396" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B396" s="1"/>
+      <c r="C396" s="1"/>
+      <c r="D396" s="1"/>
+      <c r="E396" s="1"/>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A397" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B397" s="1"/>
+      <c r="C397" s="1"/>
+      <c r="D397" s="1"/>
+      <c r="E397" s="1"/>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B398" s="1"/>
+      <c r="C398" s="1"/>
+      <c r="D398" s="1"/>
+      <c r="E398" s="1"/>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A399" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B399" s="1"/>
+      <c r="C399" s="1"/>
+      <c r="D399" s="1"/>
+      <c r="E399" s="1"/>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A400" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B400" s="1"/>
+      <c r="C400" s="1"/>
+      <c r="D400" s="1"/>
+      <c r="E400" s="1"/>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A401" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B401" s="1"/>
+      <c r="C401" s="1"/>
+      <c r="D401" s="1"/>
+      <c r="E401" s="1"/>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A402" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B402" s="1"/>
+      <c r="C402" s="1"/>
+      <c r="D402" s="1"/>
+      <c r="E402" s="1"/>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A403" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B403" s="1"/>
+      <c r="C403" s="1"/>
+      <c r="D403" s="1"/>
+      <c r="E403" s="1"/>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A404" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B404" s="1"/>
+      <c r="C404" s="1"/>
+      <c r="D404" s="1"/>
+      <c r="E404" s="1"/>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A405" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B405" s="1"/>
+      <c r="C405" s="1"/>
+      <c r="D405" s="1"/>
+      <c r="E405" s="1"/>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A406" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B406" s="1"/>
+      <c r="C406" s="1"/>
+      <c r="D406" s="1"/>
+      <c r="E406" s="1"/>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A407" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B407" s="1"/>
+      <c r="C407" s="1"/>
+      <c r="D407" s="1"/>
+      <c r="E407" s="1"/>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A408" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B408" s="1"/>
+      <c r="C408" s="1"/>
+      <c r="D408" s="1"/>
+      <c r="E408" s="1"/>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A409" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B409" s="1"/>
+      <c r="C409" s="1"/>
+      <c r="D409" s="1"/>
+      <c r="E409" s="1"/>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A410" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B410" s="1"/>
+      <c r="C410" s="1"/>
+      <c r="D410" s="1"/>
+      <c r="E410" s="1"/>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A411" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B411" s="1"/>
+      <c r="C411" s="1"/>
+      <c r="D411" s="1"/>
+      <c r="E411" s="1"/>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A412" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B412" s="1"/>
+      <c r="C412" s="1"/>
+      <c r="D412" s="1"/>
+      <c r="E412" s="1"/>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A413" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B413" s="1"/>
+      <c r="C413" s="1"/>
+      <c r="D413" s="1"/>
+      <c r="E413" s="1"/>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A414" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B414" s="1"/>
+      <c r="C414" s="1"/>
+      <c r="D414" s="1"/>
+      <c r="E414" s="1"/>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A415" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B415" s="1"/>
+      <c r="C415" s="1"/>
+      <c r="D415" s="1"/>
+      <c r="E415" s="1"/>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A416" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B416" s="1"/>
+      <c r="C416" s="1"/>
+      <c r="D416" s="1"/>
+      <c r="E416" s="1"/>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A417" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B417" s="1"/>
+      <c r="C417" s="1"/>
+      <c r="D417" s="1"/>
+      <c r="E417" s="1"/>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A418" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B418" s="1"/>
+      <c r="C418" s="1"/>
+      <c r="D418" s="1"/>
+      <c r="E418" s="1"/>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A419" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B419" s="1"/>
+      <c r="C419" s="1"/>
+      <c r="D419" s="1"/>
+      <c r="E419" s="1"/>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A420" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B420" s="1"/>
+      <c r="C420" s="1"/>
+      <c r="D420" s="1"/>
+      <c r="E420" s="1"/>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A421" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B421" s="1"/>
+      <c r="C421" s="1"/>
+      <c r="D421" s="1"/>
+      <c r="E421" s="1"/>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A422" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B422" s="1"/>
+      <c r="C422" s="1"/>
+      <c r="D422" s="1"/>
+      <c r="E422" s="1"/>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A423" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B423" s="1"/>
+      <c r="C423" s="1"/>
+      <c r="D423" s="1"/>
+      <c r="E423" s="1"/>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A424" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B424" s="1"/>
+      <c r="C424" s="1"/>
+      <c r="D424" s="1"/>
+      <c r="E424" s="1"/>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A425" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B425" s="1"/>
+      <c r="C425" s="1"/>
+      <c r="D425" s="1"/>
+      <c r="E425" s="1"/>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A426" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B426" s="1"/>
+      <c r="C426" s="1"/>
+      <c r="D426" s="1"/>
+      <c r="E426" s="1"/>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A427" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B427" s="1"/>
+      <c r="C427" s="1"/>
+      <c r="D427" s="1"/>
+      <c r="E427" s="1"/>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A428" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B428" s="1"/>
+      <c r="C428" s="1"/>
+      <c r="D428" s="1"/>
+      <c r="E428" s="1"/>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A429" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B429" s="1"/>
+      <c r="C429" s="1"/>
+      <c r="D429" s="1"/>
+      <c r="E429" s="1"/>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A430" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B430" s="1"/>
+      <c r="C430" s="1"/>
+      <c r="D430" s="1"/>
+      <c r="E430" s="1"/>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A431" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B431" s="1"/>
+      <c r="C431" s="1"/>
+      <c r="D431" s="1"/>
+      <c r="E431" s="1"/>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A432" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B432" s="1"/>
+      <c r="C432" s="1"/>
+      <c r="D432" s="1"/>
+      <c r="E432" s="1"/>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A433" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B433" s="1"/>
+      <c r="C433" s="1"/>
+      <c r="D433" s="1"/>
+      <c r="E433" s="1"/>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A434" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B434" s="1"/>
+      <c r="C434" s="1"/>
+      <c r="D434" s="1"/>
+      <c r="E434" s="1"/>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A435" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B435" s="1"/>
+      <c r="C435" s="1"/>
+      <c r="D435" s="1"/>
+      <c r="E435" s="1"/>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A436" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B436" s="1"/>
+      <c r="C436" s="1"/>
+      <c r="D436" s="1"/>
+      <c r="E436" s="1"/>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A437" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B437" s="1"/>
+      <c r="C437" s="1"/>
+      <c r="D437" s="1"/>
+      <c r="E437" s="1"/>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A438" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B438" s="1"/>
+      <c r="C438" s="1"/>
+      <c r="D438" s="1"/>
+      <c r="E438" s="1"/>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A439" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B439" s="1"/>
+      <c r="C439" s="1"/>
+      <c r="D439" s="1"/>
+      <c r="E439" s="1"/>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A440" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B440" s="1"/>
+      <c r="C440" s="1"/>
+      <c r="D440" s="1"/>
+      <c r="E440" s="1"/>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A441" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B441" s="1"/>
+      <c r="C441" s="1"/>
+      <c r="D441" s="1"/>
+      <c r="E441" s="1"/>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A442" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B442" s="1"/>
+      <c r="C442" s="1"/>
+      <c r="D442" s="1"/>
+      <c r="E442" s="1"/>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A443" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B443" s="1"/>
+      <c r="C443" s="1"/>
+      <c r="D443" s="1"/>
+      <c r="E443" s="1"/>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A444" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B444" s="1"/>
+      <c r="C444" s="1"/>
+      <c r="D444" s="1"/>
+      <c r="E444" s="1"/>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A445" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B445" s="1"/>
+      <c r="C445" s="1"/>
+      <c r="D445" s="1"/>
+      <c r="E445" s="1"/>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A446" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B446" s="1"/>
+      <c r="C446" s="1"/>
+      <c r="D446" s="1"/>
+      <c r="E446" s="1"/>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A447" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B447" s="1"/>
+      <c r="C447" s="1"/>
+      <c r="D447" s="1"/>
+      <c r="E447" s="1"/>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A448" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B448" s="1"/>
+      <c r="C448" s="1"/>
+      <c r="D448" s="1"/>
+      <c r="E448" s="1"/>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A449" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B449" s="1"/>
+      <c r="C449" s="1"/>
+      <c r="D449" s="1"/>
+      <c r="E449" s="1"/>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A450" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B450" s="1"/>
+      <c r="C450" s="1"/>
+      <c r="D450" s="1"/>
+      <c r="E450" s="1"/>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A451" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B451" s="1"/>
+      <c r="C451" s="1"/>
+      <c r="D451" s="1"/>
+      <c r="E451" s="1"/>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A452" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B452" s="1"/>
+      <c r="C452" s="1"/>
+      <c r="D452" s="1"/>
+      <c r="E452" s="1"/>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A453" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B453" s="1"/>
+      <c r="C453" s="1"/>
+      <c r="D453" s="1"/>
+      <c r="E453" s="1"/>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A454" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B454" s="1"/>
+      <c r="C454" s="1"/>
+      <c r="D454" s="1"/>
+      <c r="E454" s="1"/>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A455" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B455" s="1"/>
+      <c r="C455" s="1"/>
+      <c r="D455" s="1"/>
+      <c r="E455" s="1"/>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A456" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B456" s="1"/>
+      <c r="C456" s="1"/>
+      <c r="D456" s="1"/>
+      <c r="E456" s="1"/>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A457" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B457" s="1"/>
+      <c r="C457" s="1"/>
+      <c r="D457" s="1"/>
+      <c r="E457" s="1"/>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A458" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B458" s="1"/>
+      <c r="C458" s="1"/>
+      <c r="D458" s="1"/>
+      <c r="E458" s="1"/>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A459" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B459" s="1"/>
+      <c r="C459" s="1"/>
+      <c r="D459" s="1"/>
+      <c r="E459" s="1"/>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A460" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B460" s="1"/>
+      <c r="C460" s="1"/>
+      <c r="D460" s="1"/>
+      <c r="E460" s="1"/>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A461" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B461" s="1"/>
+      <c r="C461" s="1"/>
+      <c r="D461" s="1"/>
+      <c r="E461" s="1"/>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A462" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B462" s="1"/>
+      <c r="C462" s="1"/>
+      <c r="D462" s="1"/>
+      <c r="E462" s="1"/>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A463" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B463" s="1"/>
+      <c r="C463" s="1"/>
+      <c r="D463" s="1"/>
+      <c r="E463" s="1"/>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A464" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B464" s="1"/>
+      <c r="C464" s="1"/>
+      <c r="D464" s="1"/>
+      <c r="E464" s="1"/>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A465" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B465" s="1"/>
+      <c r="C465" s="1"/>
+      <c r="D465" s="1"/>
+      <c r="E465" s="1"/>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A466" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B466" s="1"/>
+      <c r="C466" s="1"/>
+      <c r="D466" s="1"/>
+      <c r="E466" s="1"/>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A467" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B467" s="1"/>
+      <c r="C467" s="1"/>
+      <c r="D467" s="1"/>
+      <c r="E467" s="1"/>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A468" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B468" s="1"/>
+      <c r="C468" s="1"/>
+      <c r="D468" s="1"/>
+      <c r="E468" s="1"/>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A469" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B469" s="1"/>
+      <c r="C469" s="1"/>
+      <c r="D469" s="1"/>
+      <c r="E469" s="1"/>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A470" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B470" s="1"/>
+      <c r="C470" s="1"/>
+      <c r="D470" s="1"/>
+      <c r="E470" s="1"/>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A471" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B471" s="1"/>
+      <c r="C471" s="1"/>
+      <c r="D471" s="1"/>
+      <c r="E471" s="1"/>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A472" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B472" s="1"/>
+      <c r="C472" s="1"/>
+      <c r="D472" s="1"/>
+      <c r="E472" s="1"/>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A473" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B473" s="1"/>
+      <c r="C473" s="1"/>
+      <c r="D473" s="1"/>
+      <c r="E473" s="1"/>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A474" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B474" s="1"/>
+      <c r="C474" s="1"/>
+      <c r="D474" s="1"/>
+      <c r="E474" s="1"/>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A475" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B475" s="1"/>
+      <c r="C475" s="1"/>
+      <c r="D475" s="1"/>
+      <c r="E475" s="1"/>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A476" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B476" s="1"/>
+      <c r="C476" s="1"/>
+      <c r="D476" s="1"/>
+      <c r="E476" s="1"/>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A477" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B477" s="1"/>
+      <c r="C477" s="1"/>
+      <c r="D477" s="1"/>
+      <c r="E477" s="1"/>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A478" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B478" s="1"/>
+      <c r="C478" s="1"/>
+      <c r="D478" s="1"/>
+      <c r="E478" s="1"/>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A479" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B479" s="1"/>
+      <c r="C479" s="1"/>
+      <c r="D479" s="1"/>
+      <c r="E479" s="1"/>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A480" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B480" s="1"/>
+      <c r="C480" s="1"/>
+      <c r="D480" s="1"/>
+      <c r="E480" s="1"/>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A481" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B481" s="1"/>
+      <c r="C481" s="1"/>
+      <c r="D481" s="1"/>
+      <c r="E481" s="1"/>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A482" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B482" s="1"/>
+      <c r="C482" s="1"/>
+      <c r="D482" s="1"/>
+      <c r="E482" s="1"/>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A483" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B483" s="1"/>
+      <c r="C483" s="1"/>
+      <c r="D483" s="1"/>
+      <c r="E483" s="1"/>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A484" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B484" s="1"/>
+      <c r="C484" s="1"/>
+      <c r="D484" s="1"/>
+      <c r="E484" s="1"/>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A485" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B485" s="1"/>
+      <c r="C485" s="1"/>
+      <c r="D485" s="1"/>
+      <c r="E485" s="1"/>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A486" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B486" s="1"/>
+      <c r="C486" s="1"/>
+      <c r="D486" s="1"/>
+      <c r="E486" s="1"/>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A487" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B487" s="1"/>
+      <c r="C487" s="1"/>
+      <c r="D487" s="1"/>
+      <c r="E487" s="1"/>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A488" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B488" s="1"/>
+      <c r="C488" s="1"/>
+      <c r="D488" s="1"/>
+      <c r="E488" s="1"/>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A489" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B489" s="1"/>
+      <c r="C489" s="1"/>
+      <c r="D489" s="1"/>
+      <c r="E489" s="1"/>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A490" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B490" s="1"/>
+      <c r="C490" s="1"/>
+      <c r="D490" s="1"/>
+      <c r="E490" s="1"/>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A491" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B491" s="1"/>
+      <c r="C491" s="1"/>
+      <c r="D491" s="1"/>
+      <c r="E491" s="1"/>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A492" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B492" s="1"/>
+      <c r="C492" s="1"/>
+      <c r="D492" s="1"/>
+      <c r="E492" s="1"/>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A493" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B493" s="1"/>
+      <c r="C493" s="1"/>
+      <c r="D493" s="1"/>
+      <c r="E493" s="1"/>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A494" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B494" s="1"/>
+      <c r="C494" s="1"/>
+      <c r="D494" s="1"/>
+      <c r="E494" s="1"/>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A495" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B495" s="1"/>
+      <c r="C495" s="1"/>
+      <c r="D495" s="1"/>
+      <c r="E495" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
